--- a/result/semiannual/semiannual_description.xlsx
+++ b/result/semiannual/semiannual_description.xlsx
@@ -1,96 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>2603</t>
-  </si>
-  <si>
-    <t>2607</t>
-  </si>
-  <si>
-    <t>2608</t>
-  </si>
-  <si>
-    <t>2642</t>
-  </si>
-  <si>
-    <t>5607</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
-  <si>
-    <t>std</t>
-  </si>
-  <si>
-    <t>var</t>
-  </si>
-  <si>
-    <t>kurtosis</t>
-  </si>
-  <si>
-    <t>skewness</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>sum</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>25%</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -105,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,271 +420,475 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>-0.008341133537040061</v>
-      </c>
-      <c r="C2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2603</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2607</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2608</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2609</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2610</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2612</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2642</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>5607</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Y9999</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.008341133537040064</v>
+      </c>
+      <c r="C2" t="n">
         <v>-0.00348935523704253</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>-0.006990304511701815</v>
       </c>
-      <c r="E2">
-        <v>-0.004665217165674265</v>
-      </c>
-      <c r="F2">
+      <c r="E2" t="n">
+        <v>-0.002884100893108674</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.001621780353224612</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.006084927146204999</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.004665217165674264</v>
+      </c>
+      <c r="I2" t="n">
         <v>-0.006084629048613789</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
+      <c r="J2" t="n">
+        <v>-0.003807449532180005</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>median</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>0.0005042868194228648</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>0.0005963035579806449</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>-0.007011868986781226</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
+        <v>0.01588502996738754</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.002718929248587335</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.004633314712932712</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.00123916308125301</v>
       </c>
-      <c r="F3">
+      <c r="I3" t="n">
         <v>-0.004207797122463959</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0.06131022379103199</v>
-      </c>
-      <c r="C4">
+      <c r="J3" t="n">
+        <v>-0.007134846921295808</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.061310223791032</v>
+      </c>
+      <c r="C4" t="n">
         <v>0.03610636800074134</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>0.03996498769760601</v>
       </c>
-      <c r="E4">
-        <v>0.05478545899481435</v>
-      </c>
-      <c r="F4">
-        <v>0.03989731836801928</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0.003758943541306426</v>
-      </c>
-      <c r="C5">
+      <c r="E4" t="n">
+        <v>0.07605462493526739</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.03932069115058862</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.04776628637997887</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.05478545899481434</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.03989731836801927</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.02542316057260803</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>var</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.003758943541306427</v>
+      </c>
+      <c r="C5" t="n">
         <v>0.001303669810204958</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>0.0015972002416698</v>
       </c>
-      <c r="E5">
-        <v>0.003001446517272485</v>
-      </c>
-      <c r="F5">
+      <c r="E5" t="n">
+        <v>0.005784305974044196</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.001546116752559978</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.002281618114534155</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.003001446517272484</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.001591796012959088</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
+      <c r="J5" t="n">
+        <v>0.0006463370935006117</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>kurtosis</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>5.276606396352666</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>3.299527822249896</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>0.6452193267312483</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
+        <v>5.613586634151047</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.2200710830174346</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2079251977714907</v>
+      </c>
+      <c r="H6" t="n">
         <v>3.824571618602733</v>
       </c>
-      <c r="F6">
+      <c r="I6" t="n">
         <v>0.5829868181319791</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
+      <c r="J6" t="n">
+        <v>4.850121931427814</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>skewness</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>-1.937045449573963</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>-1.085322685653667</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>-0.2407273188221394</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
+        <v>-2.010175194366455</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.3357729103420402</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.7383116268233926</v>
+      </c>
+      <c r="H7" t="n">
         <v>-1.418015008135904</v>
       </c>
-      <c r="F7">
+      <c r="I7" t="n">
         <v>-0.2502195055509125</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
+      <c r="J7" t="n">
+        <v>0.3600768381988874</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>-0.240397304628489</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>-0.1205235894046895</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>-0.1158896269899607</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
+        <v>-0.2965034072417709</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.0791109403919245</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.1263204026837822</v>
+      </c>
+      <c r="H8" t="n">
         <v>-0.1705813186089748</v>
       </c>
-      <c r="F8">
+      <c r="I8" t="n">
         <v>-0.1016707228850013</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
+      <c r="J8" t="n">
+        <v>-0.08508486454834863</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>0.07242886537770588</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>0.0723397467587034</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>0.08817984401255689</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
+        <v>0.126588748106636</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.08379459373937137</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.08232063549389797</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.08057573782830978</v>
       </c>
-      <c r="F9">
+      <c r="I9" t="n">
         <v>0.08207941418296565</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
+      <c r="J9" t="n">
+        <v>0.08381669611162579</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>-0.3253042079445625</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>-0.1360848542446587</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>-0.2726218759563708</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
+        <v>-0.1124799348312383</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.06324943377575985</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.237312158701995</v>
+      </c>
+      <c r="H10" t="n">
         <v>-0.09796956047915954</v>
       </c>
-      <c r="F10">
+      <c r="I10" t="n">
         <v>-0.2373005328959378</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
+      <c r="J10" t="n">
+        <v>-0.1484905317550202</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>39</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>39</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>39</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
+        <v>39</v>
+      </c>
+      <c r="F11" t="n">
+        <v>39</v>
+      </c>
+      <c r="G11" t="n">
+        <v>39</v>
+      </c>
+      <c r="H11" t="n">
         <v>21</v>
       </c>
-      <c r="F11">
+      <c r="I11" t="n">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
+      <c r="J11" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>-0.03295767039634816</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>-0.01601990985465669</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>-0.03129663544410499</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
+        <v>-0.01483734427963549</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.01869797097242291</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.02927074102579445</v>
+      </c>
+      <c r="H12" t="n">
         <v>-0.0203696054540415</v>
       </c>
-      <c r="F12">
+      <c r="I12" t="n">
         <v>-0.02806644870488436</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
+      <c r="J12" t="n">
+        <v>-0.01624720523645381</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>0.02922672472062474</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>0.01254632720418196</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>0.01875900031631798</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
+        <v>0.0406868480339373</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.02593438082183123</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.028070399591918</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.01756008594297105</v>
       </c>
-      <c r="F13">
+      <c r="I13" t="n">
         <v>0.01517139093430734</v>
       </c>
+      <c r="J13" t="n">
+        <v>0.009855035631021192</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>